--- a/aula-formatos-de-dados.xlsx
+++ b/aula-formatos-de-dados.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED5BA8-8523-46D7-B31B-424F0CABFC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,14 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="00000\-000"/>
-    <numFmt numFmtId="169" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="00000\-000"/>
+    <numFmt numFmtId="168" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -173,19 +185,19 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -203,10 +215,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -523,24 +535,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -556,7 +570,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -564,7 +578,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -572,7 +586,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -580,7 +594,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -588,7 +602,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -596,7 +610,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -604,7 +618,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -612,7 +626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
@@ -620,7 +634,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -628,7 +642,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -637,7 +651,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -645,7 +659,7 @@
         <v>38415513</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
@@ -655,5 +669,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>